--- a/annotators/Annotator_4o_updated.xlsx
+++ b/annotators/Annotator_4o_updated.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baldw\Desktop\UMO\PERC\privacy_stories_1.1\annotators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFC4045-8609-4992-8C2A-0F3931E579B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="257">
-  <si>
-    <t>File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="228">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Target File Path</t>
   </si>
   <si>
@@ -34,9 +34,6 @@
     <t>Model Response 1</t>
   </si>
   <si>
-    <t>Model Response 2</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
@@ -53,78 +50,6 @@
   </si>
   <si>
     <t>Please provide any stories which this output is missing</t>
-  </si>
-  <si>
-    <t>Actual_Budget\Accounts_&amp;_Transactions.txt</t>
-  </si>
-  <si>
-    <t>Akaunting\CreatingAnewAccount.txt</t>
-  </si>
-  <si>
-    <t>Attendize\features.txt</t>
-  </si>
-  <si>
-    <t>element-android\add_threePids.txt</t>
-  </si>
-  <si>
-    <t>friendica\account-basics.txt</t>
-  </si>
-  <si>
-    <t>gotosocial\signups.txt</t>
-  </si>
-  <si>
-    <t>invoiceninja\userdetails.txt</t>
-  </si>
-  <si>
-    <t>jitsi-meet\configurations.txt</t>
-  </si>
-  <si>
-    <t>joinlemmy\Getting Started.txt</t>
-  </si>
-  <si>
-    <t>koel\profile-preferences.txt</t>
-  </si>
-  <si>
-    <t>lh-ehr\Direct_Messaging_README.txt</t>
-  </si>
-  <si>
-    <t>Mattermost_Architecture\Navigation.txt</t>
-  </si>
-  <si>
-    <t>Monica\README.txt</t>
-  </si>
-  <si>
-    <t>openMRS\Architecture.txt</t>
-  </si>
-  <si>
-    <t>OpenTracks\data-structure.txt</t>
-  </si>
-  <si>
-    <t>peertube\managing-users.txt</t>
-  </si>
-  <si>
-    <t>sharetribe\analyrics-events.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_data_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_validity_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\password_auth_provider_callbacks.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\DatabaseSchema.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationDistributor.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationSubscriber.txt</t>
-  </si>
-  <si>
-    <t>Zulip\file.txt</t>
   </si>
   <si>
     <t xml:space="preserve">You are a privacy expert annotator tasked with annotating text files with metadata about privacy behaviors and stories. For the given text, annotate the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
@@ -7915,9 +7840,6 @@
 </t>
   </si>
   <si>
-    <t>openai:gpt-4o-2024-11-20</t>
-  </si>
-  <si>
     <t>input\Actual_Budget\Accounts_&amp;_Transactions.txt</t>
   </si>
   <si>
@@ -8132,9 +8054,6 @@
   </si>
   <si>
     <t>"```xml\n&lt;Actions&gt;\nCollect\nUse\nShare\n&lt;/Actions&gt;\n\n&lt;Data Types&gt;\nHealth Data:\n  Clinical Data\n  CCR\n  CCD\nContact Data:\n  Email Address\n  Username\nAccount Information:\n  Password\n  User ID\nUsage Data:\n  Timestamps\n  Sender Metadata\n  Recipient Metadata\n  Message Content\n  Message ID\n  Device Information:\n    Device ID\nTracking:\n  Cookies\n&lt;/Data Types&gt;\n\n&lt;Purposes&gt;\nRequirements\nFunctionality\nSecurity\nAnalytics\nCustomization\n&lt;/Purposes&gt;\n\n&lt;Stories&gt;\n1. We collect health data (clinical data, CCR, and CCD) for requirements.\n2. We collect contact data (email address, username) and account information (password, user ID) for functionality.\n3. We use health data (clinical data, CCR, and CCD) and account information (password, user ID) for functionality.\n4. We use contact data (email address, username) and usage data (timestamps, device information, message metadata) for analytics.\n5. We use usage data (timestamps, sender metadata, recipient metadata, message content, message ID) for security.\n6. We share contact data (email address) and tracking data (cookies) for customization.\n7. We share health data (clinical data, CCR, CCD) and account information (user ID) for requirements.\n&lt;/Stories&gt;\n\n&lt;R&gt;\n**Rationale for Actions**:  \n- **Collect**: The system gathers clinical data (CCR, CCD) and user credentials (email address, username, password) for enabling functionality and meeting requirements like compliance with the Direct Project.\n- **Use**: The system processes clinical data, account information, and usage data (message metadata, timestamps) for functionality, analytics, and security purposes.\n- **Share**: Data such as clinical data, user email addresses, and cookies are shared externally to integrate with third-party services or for customization purposes.\n\n**Rationale for Data Types**:  \n- **Health Data**: Clinical data such as CCR and CCD are explicitly mentioned as being collected, used, and shared for Direct Messaging functionalities and compliance purposes.\n- **Contact Data**: Email addresses and usernames are collected for accounts and notifications. \n- **Account Information**: Passwords and user IDs are collected for authentication and managing account services.\n- **Usage Data**: Timestamps and message metadata (e.g., message ID, sender/recipient information) are used for logging and security purposes.\n- **Tracking**: Cookies were mentioned in the context of notifications and user interaction.\n\n**Rationale for Purposes**:  \n- **Requirements**: The text repeatedly refers to compliance with MU2 criteria and Direct Project requirements.\n- **Functionality**: Data is collected and used to enable the core functionalities of the system, such as sending and receiving Direct Messages, configuring the phiMail service, and managing user accounts.\n- **Security**: The system ensures secure communication and uses metadata to validate connections, monitor logs, and prevent unauthorized access.\n- **Analytics**: Usage statistics and metadata are collected for monitoring and performance tracking.\n- **Customization**: User-specific preferences and configurations (e.g., notification settings) require the use of collected data for personalization.\n\n**Rationale for Stories**:  \nThe privacy stories were constructed by combining the identified actions, data types, and purposes as described in the text. For example:  \n- \"We collect health data (clinical data, CCR, and CCD) for requirements\" derives from the mention of compliance with MU2 criteria.  \n- \"We use usage data (timestamps, sender metadata, recipient metadata, message content, message ID) for security\" derives from the text's description of logs and error handling to ensure secure message delivery.  \n- \"We share contact data (email address) and tracking data (cookies) for customization\" is based on the mention of using cookies and email addresses for notification and interaction with third-party services.  \nEach story connects the action, data type, and purpose in context with the described functionality or requirement.\n&lt;/R&gt;\n```"</t>
-  </si>
-  <si>
-    <t>"No Response"</t>
   </si>
   <si>
     <t>We collect email address, username, and password for account management.  \n2.</t>
@@ -8506,8 +8425,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8577,7 +8496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8594,19 +8513,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8644,7 +8577,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8678,6 +8611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8712,9 +8646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8887,21 +8822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="50.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="50.7109375" style="4" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="50.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8932,2889 +8869,2292 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="F31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="F32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
+      <c r="F34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="F35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
+      <c r="F37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="F38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="F39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
+      <c r="F40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
+      <c r="F41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="F42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
+      <c r="F43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="F45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2" t="s">
+      <c r="F46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
+      <c r="F47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2" t="s">
+      <c r="F48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="F49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2" t="s">
+      <c r="F50" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
+      <c r="F51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
+      <c r="F52" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2" t="s">
+      <c r="F53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="F54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
+      <c r="F55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
+      <c r="F56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2" t="s">
+      <c r="F57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
+      <c r="F58" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2" t="s">
+      <c r="F59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="F60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2" t="s">
+      <c r="F61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2" t="s">
+      <c r="F62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="F63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2" t="s">
+      <c r="F64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2" t="s">
+      <c r="F65" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2" t="s">
+      <c r="F66" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2" t="s">
+      <c r="F67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2" t="s">
+      <c r="F68" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="F69" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2" t="s">
+      <c r="F70" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2" t="s">
+      <c r="F71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2" t="s">
+      <c r="F72" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2" t="s">
+      <c r="F73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2" t="s">
+      <c r="F74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2" t="s">
+      <c r="F75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2" t="s">
+      <c r="F76" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2" t="s">
+      <c r="F77" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="F78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2" t="s">
+      <c r="F79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2" t="s">
+      <c r="F80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2" t="s">
+      <c r="F81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2" t="s">
+      <c r="F82" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="F83" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2" t="s">
+      <c r="F84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="2" t="s">
+      <c r="F85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2" t="s">
+      <c r="F86" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2" t="s">
+      <c r="F87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2" t="s">
+      <c r="F88" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="F89" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2" t="s">
+      <c r="F90" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="F91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2" t="s">
+      <c r="F92" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2" t="s">
+      <c r="F93" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2" t="s">
+      <c r="F94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2" t="s">
+      <c r="F95" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2" t="s">
+      <c r="F96" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2" t="s">
+      <c r="F97" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="2" t="s">
+      <c r="F98" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="2" t="s">
+      <c r="F100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2" t="s">
+      <c r="F101" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="F103" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2" t="s">
+      <c r="F104" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2" t="s">
+      <c r="F105" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2" t="s">
+      <c r="F106" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="2" t="s">
+      <c r="F107" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2" t="s">
+      <c r="F108" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="2" t="s">
+      <c r="F109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2" t="s">
+      <c r="F110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="F111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="2" t="s">
+      <c r="F112" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H83" s="2" t="s">
+      <c r="F113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="2" t="s">
+      <c r="F114" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="2" t="s">
+      <c r="F115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H86" s="2" t="s">
+      <c r="F116" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="2" t="s">
+      <c r="F117" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="2" t="s">
+      <c r="F118" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="2" t="s">
+      <c r="F119" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="F120" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="2" t="s">
+      <c r="F121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="2" t="s">
+      <c r="F122" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="2" t="s">
+      <c r="F123" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M124" s="4"/>
+      <c r="F124" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J124" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="120">
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="J114:J117"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="C118:C124"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="J118:J124"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="J90:J94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="D73:D80"/>
+    <mergeCell ref="J73:J80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="J63:J72"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="J14:J20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="J21:J25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D8:D13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="M14:M20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="F35:F40"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="M41:M49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="M55:M60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="E63:E72"/>
-    <mergeCell ref="F63:F72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="M63:M72"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="D73:D80"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="G90:G94"/>
-    <mergeCell ref="M90:M94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="M99:M102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="M103:M106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="E107:E110"/>
-    <mergeCell ref="F107:F110"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="M107:M110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="M111:M113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="M114:M117"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="C118:C124"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="F118:F124"/>
-    <mergeCell ref="G118:G124"/>
-    <mergeCell ref="M118:M124"/>
+    <mergeCell ref="J8:J13"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="I2:I124">
-      <formula1>"null,Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="J2:J124">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="F2:G124" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"null,Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
